--- a/ACG/ACG/ステージ2.xlsx
+++ b/ACG/ACG/ステージ2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamGame\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -94,11 +90,32 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -112,7 +129,80 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -126,14 +216,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -475,7 +572,7 @@
   <dimension ref="A1:CV24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="AD14" sqref="AD14:AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4799,7 +4896,9 @@
       <c r="AC15" s="1">
         <v>0</v>
       </c>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
       <c r="AE15" s="1">
         <v>0</v>
       </c>
@@ -5008,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="CV15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.15">
@@ -5310,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="CV16" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:100" x14ac:dyDescent="0.15">
@@ -6509,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="CS20" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CT20" s="1">
         <v>0</v>
@@ -7113,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="CS22" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="CT22" s="1">
         <v>0</v>
@@ -7732,48 +7831,48 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:CV24">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV24">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7915,6 +8014,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7923,20 +8028,44 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ACG/ACG/ステージ2.xlsx
+++ b/ACG/ACG/ステージ2.xlsx
@@ -90,7 +90,108 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -571,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14:AD16"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CT20" sqref="CS20:CT20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6306,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="CS19" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CT19" s="1">
         <v>0</v>
@@ -6608,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="CS20" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="CT20" s="1">
         <v>0</v>
@@ -7831,48 +7932,48 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:CV24">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV24">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7882,6 +7983,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -8013,35 +8129,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8063,9 +8154,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ACG/ACG/ステージ2.xlsx
+++ b/ACG/ACG/ステージ2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamGame\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate3\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,209 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="70">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -673,7 +875,7 @@
   <dimension ref="A1:CV24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CT20" sqref="CS20:CT20"/>
+      <selection activeCell="BN26" sqref="BN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6592,40 +6794,40 @@
         <v>2</v>
       </c>
       <c r="BF20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BK20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BL20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BO20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BP20" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BQ20" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BR20" s="1">
         <v>2</v>
@@ -6894,37 +7096,37 @@
         <v>2</v>
       </c>
       <c r="BF21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BH21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BK21" s="1">
         <v>17</v>
       </c>
       <c r="BL21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BM21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BO21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BP21" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BQ21" s="1">
         <v>2</v>
@@ -7196,34 +7398,34 @@
         <v>2</v>
       </c>
       <c r="BF22" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BG22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BL22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BM22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BO22" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BP22" s="1">
         <v>2</v>
@@ -7501,28 +7703,28 @@
         <v>2</v>
       </c>
       <c r="BG23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BH23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BI23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BK23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BL23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BM23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BN23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BO23" s="1">
         <v>2</v>
@@ -7932,48 +8134,48 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:CV24">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV24">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7983,21 +8185,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -8129,31 +8316,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8169,4 +8347,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>